--- a/REVER_DailyTracker_20200916.xlsx
+++ b/REVER_DailyTracker_20200916.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mamatha\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5D34BCF-38E2-470C-9615-0C8AF6555B7C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{976E1DEC-D8B3-4680-AD46-29C123E692CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" activeTab="3" xr2:uid="{BDBCA639-774E-4870-AA16-72178DF9137C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="167">
   <si>
     <t>Task</t>
   </si>
@@ -578,6 +578,9 @@
   </si>
   <si>
     <t>B2B issues from issue tracker</t>
+  </si>
+  <si>
+    <t>Hayaai-B2B</t>
   </si>
 </sst>
 </file>
@@ -2542,7 +2545,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2581,8 +2584,12 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="1"/>
+      <c r="B2" s="6">
+        <v>44090</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>166</v>
+      </c>
       <c r="D2" s="1" t="s">
         <v>165</v>
       </c>
